--- a/Testing/CPS/CPS_CAS 111-11-1.xlsx
+++ b/Testing/CPS/CPS_CAS 111-11-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arche/Documents/Python/C2Cautomatisation/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7393DC36-F077-D64B-AA64-E5B5D535BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED96AE-0332-F144-821A-B34325884A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="1320" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C2Coverview" sheetId="4" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="241">
   <si>
     <t>Arche</t>
   </si>
@@ -774,6 +774,18 @@
   </si>
   <si>
     <t>In vivo mam: OECD 474</t>
+  </si>
+  <si>
+    <t>In vivo mam: OECD 489</t>
+  </si>
+  <si>
+    <t>ECHA</t>
+  </si>
+  <si>
+    <t>readacroos</t>
+  </si>
+  <si>
+    <t>PHAROS</t>
   </si>
 </sst>
 </file>
@@ -4984,8 +4996,8 @@
   </sheetPr>
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5202,7 +5214,9 @@
       <c r="D18" s="120"/>
       <c r="E18" s="120"/>
       <c r="F18" s="121"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I18" s="30"/>
       <c r="J18" s="27"/>
       <c r="K18" s="129"/>
@@ -5219,7 +5233,9 @@
       <c r="D19" s="120"/>
       <c r="E19" s="120"/>
       <c r="F19" s="121"/>
-      <c r="H19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="109"/>
@@ -5236,7 +5252,9 @@
       <c r="D20" s="120"/>
       <c r="E20" s="120"/>
       <c r="F20" s="121"/>
-      <c r="H20" s="32"/>
+      <c r="H20" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="8"/>
       <c r="K20" s="109"/>
@@ -5423,7 +5441,9 @@
       <c r="F32" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
       <c r="K32" s="124"/>
@@ -5435,14 +5455,16 @@
         <v>30</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D33" s="87"/>
       <c r="E33" s="84"/>
       <c r="F33" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
       <c r="K33" s="124"/>
@@ -5454,14 +5476,16 @@
         <v>30</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D34" s="87"/>
       <c r="E34" s="84"/>
       <c r="F34" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="32"/>
+      <c r="H34" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
       <c r="K34" s="124"/>
@@ -5473,7 +5497,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D35" s="87"/>
       <c r="E35" s="84"/>
@@ -5492,7 +5516,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="84"/>
@@ -5511,7 +5535,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="84"/>
@@ -5530,7 +5554,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="84"/>
@@ -5789,7 +5813,9 @@
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
       <c r="F54" s="84"/>
-      <c r="H54" s="32"/>
+      <c r="H54" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="8"/>
       <c r="K54" s="106"/>
@@ -5806,7 +5832,9 @@
       <c r="D55" s="87"/>
       <c r="E55" s="87"/>
       <c r="F55" s="84"/>
-      <c r="H55" s="32"/>
+      <c r="H55" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="8"/>
       <c r="K55" s="106"/>
@@ -5824,7 +5852,9 @@
         <f>IF(B56="Oral NOAEL =","mg/kg bw/day",IF(B56="Inhalation NOAEL =","mg/l 6-8 h/day"," "))</f>
         <v>mg/kg bw/day</v>
       </c>
-      <c r="H56" s="32"/>
+      <c r="H56" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="8"/>
       <c r="K56" s="106"/>
@@ -5914,6 +5944,9 @@
       <c r="E62" s="120"/>
       <c r="F62" s="121"/>
       <c r="G62" s="9"/>
+      <c r="H62" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="8"/>
       <c r="K62" s="123"/>
@@ -5928,6 +5961,9 @@
         <v>193</v>
       </c>
       <c r="G63" s="9"/>
+      <c r="H63" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="8"/>
       <c r="K63" s="123"/>
@@ -5944,6 +5980,9 @@
       <c r="E64" s="70"/>
       <c r="F64" s="70"/>
       <c r="G64" s="9"/>
+      <c r="H64" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="8"/>
       <c r="K64" s="123"/>
@@ -6035,6 +6074,9 @@
       <c r="E70" s="120"/>
       <c r="F70" s="121"/>
       <c r="G70" s="9"/>
+      <c r="H70" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="8"/>
       <c r="K70" s="106"/>
@@ -6052,7 +6094,9 @@
       </c>
       <c r="E71" s="34"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="32"/>
+      <c r="H71" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="8"/>
       <c r="K71" s="106"/>
@@ -6069,7 +6113,9 @@
         <v>56</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="32"/>
+      <c r="H72" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="8"/>
       <c r="K72" s="106"/>
@@ -6125,6 +6171,9 @@
       <c r="E76" s="120"/>
       <c r="F76" s="121"/>
       <c r="G76" s="9"/>
+      <c r="H76" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="8"/>
       <c r="K76" s="107"/>
@@ -6142,7 +6191,9 @@
       <c r="E77" s="120"/>
       <c r="F77" s="121"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="32"/>
+      <c r="H77" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="8"/>
       <c r="K77" s="107"/>
@@ -6161,7 +6212,9 @@
         <v>ppmV</v>
       </c>
       <c r="G78" s="9"/>
-      <c r="H78" s="32"/>
+      <c r="H78" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="8"/>
       <c r="K78" s="107"/>
@@ -6321,6 +6374,9 @@
       <c r="E88" s="120"/>
       <c r="F88" s="121"/>
       <c r="G88" s="9"/>
+      <c r="H88" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="8"/>
       <c r="K88" s="106"/>
@@ -6338,6 +6394,9 @@
       <c r="E89" s="120"/>
       <c r="F89" s="121"/>
       <c r="G89" s="9"/>
+      <c r="H89" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="8"/>
       <c r="K89" s="106"/>
@@ -6355,7 +6414,9 @@
         <v>73</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="32"/>
+      <c r="H90" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="8"/>
       <c r="K90" s="106"/>
@@ -6444,6 +6505,9 @@
       <c r="E96" s="87"/>
       <c r="F96" s="84"/>
       <c r="G96" s="9"/>
+      <c r="H96" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="8"/>
       <c r="K96" s="106"/>
@@ -6461,6 +6525,9 @@
       <c r="E97" s="120"/>
       <c r="F97" s="121"/>
       <c r="G97" s="9"/>
+      <c r="H97" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="8"/>
       <c r="K97" s="106"/>
@@ -6478,6 +6545,9 @@
       <c r="E98" s="87"/>
       <c r="F98" s="84"/>
       <c r="G98" s="9"/>
+      <c r="H98" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="8"/>
       <c r="K98" s="106"/>
@@ -6570,6 +6640,9 @@
       <c r="E104" s="87"/>
       <c r="F104" s="84"/>
       <c r="G104" s="9"/>
+      <c r="H104" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="8"/>
       <c r="K104" s="122"/>
@@ -6587,6 +6660,9 @@
       <c r="E105" s="87"/>
       <c r="F105" s="84"/>
       <c r="G105" s="9"/>
+      <c r="H105" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="8"/>
       <c r="K105" s="122"/>
@@ -6604,6 +6680,9 @@
       <c r="E106" s="113"/>
       <c r="F106" s="114"/>
       <c r="G106" s="9"/>
+      <c r="H106" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="8"/>
       <c r="K106" s="122"/>
@@ -6768,7 +6847,9 @@
         <v>97</v>
       </c>
       <c r="G117" s="9"/>
-      <c r="H117" s="79"/>
+      <c r="H117" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="8"/>
       <c r="K117" s="106"/>
@@ -6786,6 +6867,9 @@
         <v>97</v>
       </c>
       <c r="G118" s="9"/>
+      <c r="H118" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="8"/>
       <c r="K118" s="106"/>
@@ -6803,6 +6887,9 @@
         <v>97</v>
       </c>
       <c r="G119" s="9"/>
+      <c r="H119" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I119" s="9"/>
       <c r="J119" s="8"/>
       <c r="K119" s="106"/>
@@ -6893,7 +6980,9 @@
         <v>97</v>
       </c>
       <c r="G125" s="9"/>
-      <c r="H125" s="79"/>
+      <c r="H125" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I125" s="9"/>
       <c r="J125" s="8"/>
       <c r="K125" s="106"/>
@@ -6911,7 +7000,9 @@
         <v>97</v>
       </c>
       <c r="G126" s="9"/>
-      <c r="H126" s="79"/>
+      <c r="H126" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I126" s="9"/>
       <c r="J126" s="8"/>
       <c r="K126" s="106"/>
@@ -6926,7 +7017,9 @@
         <v>6</v>
       </c>
       <c r="G127" s="9"/>
-      <c r="H127" s="79"/>
+      <c r="H127" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I127" s="9"/>
       <c r="J127" s="8"/>
       <c r="K127" s="106"/>
@@ -6970,6 +7063,9 @@
       <c r="E130" s="113"/>
       <c r="F130" s="114"/>
       <c r="G130" s="9"/>
+      <c r="H130" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="8"/>
       <c r="K130" s="115"/>
@@ -6987,6 +7083,9 @@
         <v>97</v>
       </c>
       <c r="G131" s="9"/>
+      <c r="H131" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="106"/>
@@ -7004,7 +7103,9 @@
         <v>97</v>
       </c>
       <c r="G132" s="9"/>
-      <c r="H132" s="79"/>
+      <c r="H132" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="106"/>
@@ -7150,6 +7251,9 @@
         <v>500</v>
       </c>
       <c r="G143" s="9"/>
+      <c r="H143" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="106"/>
@@ -7164,6 +7268,9 @@
         <v>20</v>
       </c>
       <c r="G144" s="9"/>
+      <c r="H144" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="106"/>
@@ -7178,6 +7285,9 @@
         <v>6</v>
       </c>
       <c r="G145" s="9"/>
+      <c r="H145" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="106"/>
@@ -7237,6 +7347,9 @@
         <v>% degradation (DOC)</v>
       </c>
       <c r="G149" s="9"/>
+      <c r="H149" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="106"/>
@@ -7255,6 +7368,9 @@
         <v>% degradation (ThOD)</v>
       </c>
       <c r="G150" s="9"/>
+      <c r="H150" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="106"/>
@@ -7269,6 +7385,9 @@
         <v>212</v>
       </c>
       <c r="G151" s="9"/>
+      <c r="H151" s="32" t="s">
+        <v>240</v>
+      </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="106"/>
